--- a/tables/xls/it/82_Materiali preaccreditati.xlsx
+++ b/tables/xls/it/82_Materiali preaccreditati.xlsx
@@ -159,7 +159,7 @@
     <t>MATERIALI PREACCREDITATI</t>
   </si>
   <si>
-    <t>Materiali Preaccreditati</t>
+    <t>Materiali preaccreditati</t>
   </si>
   <si>
     <t>Crescente</t>
@@ -759,10 +759,10 @@
         <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:14">
